--- a/resources/箱包/Business Bags & Cases.xlsx
+++ b/resources/箱包/Business Bags & Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Business Bags &amp; Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>Material</t>
   </si>
@@ -593,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_713161922" displayName="表15_713161922" ref="A1:A9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_713161922" displayName="表15_713161922" ref="A1:A12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:A12"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Material" dataDxfId="27"/>
   </tableColumns>
@@ -613,8 +613,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_7131619223" displayName="表15_7131619223" ref="A11:A19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A11:A19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表15_7131619223" displayName="表15_7131619223" ref="A14:A22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A14:A22"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Type" dataDxfId="24"/>
   </tableColumns>
@@ -623,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_7131619224" displayName="表15_7131619224" ref="A21:A29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A21:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表15_7131619224" displayName="表15_7131619224" ref="A24:A32" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A24:A32"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Size" dataDxfId="21"/>
   </tableColumns>
@@ -979,15 +979,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1036,98 +1036,110 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1148,12 +1160,12 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+      <selection activeCell="A5" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1278,12 +1290,12 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+      <selection activeCell="A4" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
@@ -1388,13 +1400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
